--- a/output.xlsx
+++ b/output.xlsx
@@ -479,11 +479,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Product A</t>
+          <t>initial</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Zone A</t>
+          <t>initial</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Inventory ID</t>
+          <t>Warehouse</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Product ID</t>
+          <t>Product Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Product Name</t>
+          <t>Zone Name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -457,29 +457,23 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Snapshot Date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Zone ID</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Zone Name</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>{'id': 1, 'name': 'initial'}</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>{'id': 1, 'name': 'initial'}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -488,14 +482,6 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-28</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>initial</t>
         </is>
       </c>
     </row>
